--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/MAINE_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/MAINE_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C2">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C5">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>0.09677419354838709</v>
+        <v>0.09677419354838708</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>0.09677419354838709</v>
+        <v>0.09677419354838708</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C16">
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>0.09677419354838709</v>
+        <v>0.09677419354838708</v>
       </c>
     </row>
     <row r="18">
@@ -812,41 +812,6 @@
       </c>
       <c r="D31">
         <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/MAINE_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/MAINE_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>San Cristóbal De La Barranca</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Texistepec</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
